--- a/data/outputs/OR_altmetric/62.xlsx
+++ b/data/outputs/OR_altmetric/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE181"/>
+  <dimension ref="A1:CF181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1525,6 +1536,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1768,6 +1782,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2021,6 +2038,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2517,6 +2540,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2762,6 +2788,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3013,6 +3042,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,6 +3286,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3497,6 +3532,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3744,6 +3782,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3997,6 +4038,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4248,6 +4292,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4501,6 +4548,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4748,6 +4798,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5001,6 +5054,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5238,6 +5294,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5469,6 +5528,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5712,6 +5774,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5963,6 +6028,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6212,6 +6280,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6457,6 +6528,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6706,6 +6780,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6949,6 +7026,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>19.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7204,6 +7284,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7457,6 +7540,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7706,6 +7792,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7945,6 +8034,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8204,6 +8296,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8464,6 +8559,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="33">
@@ -8716,6 +8814,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8959,6 +9060,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9202,6 +9306,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9453,6 +9560,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9698,6 +9808,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9947,6 +10060,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10186,6 +10302,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10437,6 +10556,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10690,6 +10812,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10935,6 +11060,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11186,6 +11314,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11429,6 +11560,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11680,6 +11814,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11921,6 +12058,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12174,6 +12314,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12427,6 +12570,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12684,6 +12830,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12935,6 +13084,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13190,6 +13342,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13441,6 +13596,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13692,6 +13850,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13943,6 +14104,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14196,6 +14360,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14447,6 +14614,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14690,6 +14860,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14937,6 +15110,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15203,6 +15379,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -15458,6 +15637,9 @@
       </c>
       <c r="CE60" t="n">
         <v>0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -15710,6 +15892,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15945,6 +16130,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16196,6 +16384,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16453,6 +16644,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16704,6 +16898,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16957,6 +17154,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17196,6 +17396,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17453,6 +17656,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17700,6 +17906,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17947,6 +18156,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18196,6 +18408,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18447,6 +18662,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18702,6 +18920,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18955,6 +19176,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19222,6 +19446,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19459,6 +19686,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19706,6 +19936,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19957,6 +20190,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20204,6 +20440,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20451,6 +20690,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20702,6 +20944,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20945,6 +21190,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21212,6 +21460,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21464,6 +21715,9 @@
       </c>
       <c r="CE84" t="n">
         <v>0</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="85">
@@ -21716,6 +21970,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21965,6 +22222,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22200,6 +22460,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22453,6 +22716,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22704,6 +22970,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22947,6 +23216,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23198,6 +23470,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23455,6 +23730,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23696,6 +23974,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23941,6 +24222,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24186,6 +24470,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24443,6 +24730,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24690,6 +24980,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24943,6 +25236,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25194,6 +25490,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25445,6 +25744,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25688,6 +25990,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25933,6 +26238,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26186,6 +26494,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26431,6 +26742,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26688,6 +27002,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26943,6 +27260,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27198,6 +27518,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27449,6 +27772,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27692,6 +28018,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27943,6 +28272,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28196,6 +28528,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28433,6 +28768,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28678,6 +29016,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28949,6 +29290,9 @@
         <v>0</v>
       </c>
       <c r="CE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29202,6 +29546,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29443,6 +29790,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29694,6 +30044,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29937,6 +30290,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30188,6 +30544,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30435,6 +30794,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30684,6 +31046,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30931,6 +31296,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31176,6 +31544,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31423,6 +31794,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31668,6 +32042,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31909,6 +32286,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32152,6 +32532,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32399,6 +32782,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32644,6 +33030,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32883,6 +33272,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33134,6 +33526,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33385,6 +33780,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33624,6 +34022,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33883,6 +34284,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34140,6 +34544,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34395,6 +34802,9 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34632,6 +35042,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34879,6 +35292,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35132,6 +35548,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35385,6 +35804,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35630,6 +36052,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35887,6 +36312,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36130,6 +36558,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36365,6 +36796,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36616,6 +37050,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36867,6 +37304,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37102,6 +37542,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37355,6 +37798,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37606,6 +38052,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37855,6 +38304,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38108,6 +38560,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38355,6 +38810,9 @@
         <v>0</v>
       </c>
       <c r="CE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38608,6 +39066,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38851,6 +39312,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -39094,6 +39558,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39345,6 +39812,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39600,6 +40070,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39851,6 +40324,9 @@
         <v>0</v>
       </c>
       <c r="CE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40104,6 +40580,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40347,6 +40826,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40608,6 +41090,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40855,6 +41340,9 @@
         <v>0</v>
       </c>
       <c r="CE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41092,6 +41580,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41335,6 +41826,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41586,6 +42080,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41837,6 +42334,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42088,6 +42588,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42335,6 +42838,9 @@
         <v>0</v>
       </c>
       <c r="CE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42572,6 +43078,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42811,6 +43320,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43064,6 +43576,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43319,6 +43834,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43577,6 +44095,9 @@
       </c>
       <c r="CE173" t="n">
         <v>0</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="174">
@@ -43821,6 +44342,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -44064,6 +44588,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44315,6 +44842,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -44562,6 +45092,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -44806,6 +45339,9 @@
       </c>
       <c r="CE178" t="n">
         <v>0</v>
+      </c>
+      <c r="CF178" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="179">
@@ -45026,6 +45562,9 @@
         <v>0</v>
       </c>
       <c r="CE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45249,6 +45788,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45498,6 +46040,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
